--- a/LeetCode完成进度表.xlsx
+++ b/LeetCode完成进度表.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,95 +41,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>031【Next Permutation】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>030【Substring with Concatenation of All Words】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Medium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>032【Longest Valid Parentheses】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>033【Search in Rotated Sorted Array】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>034【Search for a Range】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>035【Search Insert Position】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>036【Valid Sudoku】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>037【Sudoku Solver】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>038【Count and Say】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>039【Combination Sum】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>040【Combination Sum II】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>041【First Missing Positive】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>042【Trapping Rain Water】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>043【Multiply Strings】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>044【Wildcard Matching】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>045【Jump Game II】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>046【Permutations】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>047【Permutations II】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>048【Rotate Image】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>049【Group Anagrams】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>050【Pow(x, n)】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.031</t>
+  </si>
+  <si>
+    <t>No.032</t>
+  </si>
+  <si>
+    <t>No.033</t>
+  </si>
+  <si>
+    <t>No.034</t>
+  </si>
+  <si>
+    <t>No.035</t>
+  </si>
+  <si>
+    <t>No.036</t>
+  </si>
+  <si>
+    <t>No.037</t>
+  </si>
+  <si>
+    <t>No.038</t>
+  </si>
+  <si>
+    <t>No.039</t>
+  </si>
+  <si>
+    <t>No.040</t>
+  </si>
+  <si>
+    <t>No.041</t>
+  </si>
+  <si>
+    <t>No.042</t>
+  </si>
+  <si>
+    <t>No.043</t>
+  </si>
+  <si>
+    <t>No.044</t>
+  </si>
+  <si>
+    <t>No.045</t>
+  </si>
+  <si>
+    <t>No.046</t>
+  </si>
+  <si>
+    <t>No.047</t>
+  </si>
+  <si>
+    <t>No.048</t>
+  </si>
+  <si>
+    <t>No.049</t>
+  </si>
+  <si>
+    <t>No.050</t>
+  </si>
+  <si>
+    <t>No.051</t>
+  </si>
+  <si>
+    <t>No.052</t>
+  </si>
+  <si>
+    <t>No.053</t>
+  </si>
+  <si>
+    <t>No.054</t>
+  </si>
+  <si>
+    <t>No.055</t>
+  </si>
+  <si>
+    <t>No.056</t>
+  </si>
+  <si>
+    <t>No.057</t>
+  </si>
+  <si>
+    <t>No.058</t>
+  </si>
+  <si>
+    <t>No.059</t>
+  </si>
+  <si>
+    <t>No.060</t>
+  </si>
+  <si>
+    <t>No.061</t>
+  </si>
+  <si>
+    <t>No.062</t>
+  </si>
+  <si>
+    <t>No.063</t>
+  </si>
+  <si>
+    <t>No.064</t>
+  </si>
+  <si>
+    <t>No.065</t>
+  </si>
+  <si>
+    <t>No.066</t>
+  </si>
+  <si>
+    <t>No.067</t>
+  </si>
+  <si>
+    <t>No.068</t>
+  </si>
+  <si>
+    <t>No.069</t>
+  </si>
+  <si>
+    <t>No.070</t>
+  </si>
+  <si>
+    <t>No.071</t>
+  </si>
+  <si>
+    <t>No.072</t>
+  </si>
+  <si>
+    <t>No.073</t>
+  </si>
+  <si>
+    <t>No.074</t>
+  </si>
+  <si>
+    <t>No.075</t>
+  </si>
+  <si>
+    <t>No.076</t>
+  </si>
+  <si>
+    <t>【Substring with Concatenation of All Words】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Next Permutation】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Longest Valid Parentheses】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Search in Rotated Sorted Array】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Search for a Range】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Search Insert Position】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Valid Sudoku】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Sudoku Solver】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Count and Say】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Combination Sum】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Combination Sum II】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【First Missing Positive】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Trapping Rain Water】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Multiply Strings】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Wildcard Matching】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Jump Game II】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Permutations】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Permutations II】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Rotate Image】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Group Anagrams】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Pow(x, n)】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Minimum Window Substring】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,266 +659,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="55.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="55.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="28.5">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.5">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>42786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D7" s="2">
+        <v>42791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>42781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="D9" s="2">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>42783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D11" s="2">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>42786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>42790</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D13" s="2">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>42815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2">
-        <v>42791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>42793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>42799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>42801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>42804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>42807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2">
-        <v>42809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>42812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>42815</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2">
-        <v>42817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>42819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>42821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
         <v>42823</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
         <v>42825</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="2">
+        <v>42787</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/LeetCode完成进度表.xlsx
+++ b/LeetCode完成进度表.xlsx
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -704,6 +704,9 @@
       </c>
       <c r="D2" s="2">
         <v>42781</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42789</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/LeetCode完成进度表.xlsx
+++ b/LeetCode完成进度表.xlsx
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -721,6 +721,9 @@
       </c>
       <c r="D3" s="2">
         <v>42783</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/LeetCode完成进度表.xlsx
+++ b/LeetCode完成进度表.xlsx
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -738,6 +738,9 @@
       </c>
       <c r="D4" s="2">
         <v>42786</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42793</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/LeetCode完成进度表.xlsx
+++ b/LeetCode完成进度表.xlsx
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -755,6 +755,9 @@
       </c>
       <c r="D5" s="2">
         <v>42788</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42793</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/LeetCode完成进度表.xlsx
+++ b/LeetCode完成进度表.xlsx
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -772,6 +772,9 @@
       </c>
       <c r="D6" s="2">
         <v>42790</v>
+      </c>
+      <c r="E6" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/LeetCode完成进度表.xlsx
+++ b/LeetCode完成进度表.xlsx
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -789,6 +789,9 @@
       </c>
       <c r="D7" s="2">
         <v>42791</v>
+      </c>
+      <c r="E7" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/LeetCode完成进度表.xlsx
+++ b/LeetCode完成进度表.xlsx
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -806,6 +806,9 @@
       </c>
       <c r="D8" s="2">
         <v>42793</v>
+      </c>
+      <c r="E8" s="2">
+        <v>42794</v>
       </c>
     </row>
     <row r="9" spans="1:5">
